--- a/Análises Esportivas/Editavel_Nettuno_metodos-de-ciclos_2019.xlsx
+++ b/Análises Esportivas/Editavel_Nettuno_metodos-de-ciclos_2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Diretrizes" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="53">
   <si>
     <t xml:space="preserve">Ciclos</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve">21-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-09</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1134,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1360,7 +1363,7 @@
       </c>
       <c r="D8" s="29" t="n">
         <f aca="false">'Ciclo 2'!N5</f>
-        <v>5.44</v>
+        <v>6.21</v>
       </c>
       <c r="E8" s="30" t="n">
         <f aca="false">'Ciclo 3'!N5</f>
@@ -1394,19 +1397,19 @@
       </c>
       <c r="D9" s="25" t="n">
         <f aca="false">C10+D8</f>
-        <v>8.7</v>
+        <v>9.47</v>
       </c>
       <c r="E9" s="26" t="n">
         <f aca="false">C10+D10+E8</f>
-        <v>8.7</v>
+        <v>9.47</v>
       </c>
       <c r="F9" s="25" t="n">
         <f aca="false">C10+D10+E10+F8</f>
-        <v>10.2</v>
+        <v>10.97</v>
       </c>
       <c r="G9" s="27" t="n">
         <f aca="false">C10+D10+E10+F10+G8</f>
-        <v>13.2</v>
+        <v>13.97</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="12" t="n">
@@ -1415,7 +1418,7 @@
       </c>
       <c r="J9" s="12" t="n">
         <f aca="false">SUM(C10:G10)</f>
-        <v>4.2</v>
+        <v>4.97</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1430,7 +1433,7 @@
       </c>
       <c r="D10" s="25" t="n">
         <f aca="false">'Ciclo 2'!Q9</f>
-        <v>0.94</v>
+        <v>1.71</v>
       </c>
       <c r="E10" s="26" t="n">
         <f aca="false">'Ciclo 3'!Q9</f>
@@ -1590,7 +1593,7 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3997,8 +4000,8 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4016,10 +4019,10 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="45" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="45" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="45" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="45" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="45" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="45" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="45" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="45" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="45" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="45" width="9.13"/>
   </cols>
   <sheetData>
@@ -4115,14 +4118,16 @@
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="86"/>
+      <c r="N3" s="86" t="s">
+        <v>52</v>
+      </c>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
         <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G402)+Q2</f>
-        <v>5.44</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,7 +4178,7 @@
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>2.44</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4221,7 +4226,7 @@
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>5.44</v>
+        <v>6.21</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
@@ -4229,7 +4234,7 @@
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0.813333333333333</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4277,7 +4282,7 @@
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>2.44</v>
+        <v>3.21</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -4328,7 +4333,7 @@
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0.813333333333333</v>
+        <v>1.07</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
@@ -4336,7 +4341,7 @@
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I402)</f>
-        <v>0.0583340632919138</v>
+        <v>0.639556072343034</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,7 +4443,7 @@
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 3'!Q2)</f>
-        <v>0.94</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4780,15 +4785,15 @@
         <v>0.188777990948876</v>
       </c>
       <c r="G17" s="58" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="H17" s="67" t="n">
         <f aca="false">IF(G17=0,,G17/C17)</f>
-        <v>0</v>
+        <v>0.141544117647059</v>
       </c>
       <c r="I17" s="68" t="n">
         <f aca="false">IF(G17=0,,G17-F17)</f>
-        <v>0</v>
+        <v>0.581222009051124</v>
       </c>
       <c r="J17" s="61" t="n">
         <f aca="false">J16*(1-Diretrizes!D$5)</f>
@@ -4811,7 +4816,7 @@
       </c>
       <c r="C18" s="65" t="n">
         <f aca="false">IF(G17&lt;&gt;0,C17+G17,)</f>
-        <v>0</v>
+        <v>6.21</v>
       </c>
       <c r="D18" s="66" t="n">
         <f aca="false">D17*(1+J17)</f>
@@ -4819,7 +4824,7 @@
       </c>
       <c r="E18" s="65" t="n">
         <f aca="false">C18*J18</f>
-        <v>0</v>
+        <v>0.212388422867598</v>
       </c>
       <c r="F18" s="66" t="n">
         <f aca="false">D18*J18</f>
@@ -6429,8 +6434,8 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6451,7 +6456,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="45" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="45" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="45" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="45" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="45" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="45" width="9.13"/>
   </cols>
   <sheetData>

--- a/Análises Esportivas/Editavel_Nettuno_metodos-de-ciclos_2019.xlsx
+++ b/Análises Esportivas/Editavel_Nettuno_metodos-de-ciclos_2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Diretrizes" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="55">
   <si>
     <t xml:space="preserve">Ciclos</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t xml:space="preserve">24-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-09</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1373,7 @@
       </c>
       <c r="E8" s="30" t="n">
         <f aca="false">'Ciclo 3'!N5</f>
-        <v>4.5</v>
+        <v>9.49</v>
       </c>
       <c r="F8" s="29" t="n">
         <f aca="false">'Ciclo 4'!N5</f>
@@ -1401,15 +1407,15 @@
       </c>
       <c r="E9" s="26" t="n">
         <f aca="false">C10+D10+E8</f>
-        <v>9.47</v>
+        <v>14.46</v>
       </c>
       <c r="F9" s="25" t="n">
         <f aca="false">C10+D10+E10+F8</f>
-        <v>10.97</v>
+        <v>14.46</v>
       </c>
       <c r="G9" s="27" t="n">
         <f aca="false">C10+D10+E10+F10+G8</f>
-        <v>13.97</v>
+        <v>17.46</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="12" t="n">
@@ -1418,7 +1424,7 @@
       </c>
       <c r="J9" s="12" t="n">
         <f aca="false">SUM(C10:G10)</f>
-        <v>4.97</v>
+        <v>8.46</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1437,7 +1443,7 @@
       </c>
       <c r="E10" s="26" t="n">
         <f aca="false">'Ciclo 3'!Q9</f>
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="F10" s="32" t="n">
         <f aca="false">'Ciclo 4'!Q9</f>
@@ -1593,8 +1599,8 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6434,8 +6440,8 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6453,10 +6459,10 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="45" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="45" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="45" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="45" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="45" width="2.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="45" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="45" width="1.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="45" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="45" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="45" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="45" width="9.13"/>
   </cols>
   <sheetData>
@@ -6494,7 +6500,9 @@
       <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="86"/>
+      <c r="N2" s="86" t="s">
+        <v>53</v>
+      </c>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
         <v>40</v>
@@ -6525,15 +6533,15 @@
         <v>0.225</v>
       </c>
       <c r="G3" s="58" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="H3" s="59" t="n">
         <f aca="false">IF(G3=0,,G3/C3)</f>
-        <v>0</v>
+        <v>0.215555555555556</v>
       </c>
       <c r="I3" s="60" t="n">
         <f aca="false">G3-F3</f>
-        <v>-0.225</v>
+        <v>0.745</v>
       </c>
       <c r="J3" s="61" t="n">
         <f aca="false">Diretrizes!E4</f>
@@ -6544,23 +6552,25 @@
       <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="88"/>
+      <c r="N3" s="88" t="s">
+        <v>54</v>
+      </c>
       <c r="O3" s="63"/>
       <c r="P3" s="51" t="s">
         <v>43</v>
       </c>
       <c r="Q3" s="64" t="n">
         <f aca="false">SUM(G3:G401)+Q2</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="55" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="65" t="n">
         <f aca="false">IF(G3&lt;&gt;0,C3+G3,)</f>
-        <v>0</v>
+        <v>5.47</v>
       </c>
       <c r="D4" s="66" t="n">
         <f aca="false">D3*(1+J3)</f>
@@ -6568,22 +6578,22 @@
       </c>
       <c r="E4" s="65" t="n">
         <f aca="false">C4*J4</f>
-        <v>0</v>
+        <v>0.2666625</v>
       </c>
       <c r="F4" s="66" t="n">
         <f aca="false">D4*J4</f>
         <v>0.23034375</v>
       </c>
       <c r="G4" s="58" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H4" s="67" t="n">
         <f aca="false">IF(G4=0,,G4/C4)</f>
-        <v>0</v>
+        <v>0.0548446069469835</v>
       </c>
       <c r="I4" s="68" t="n">
         <f aca="false">IF(G4=0,,G4-F4)</f>
-        <v>0</v>
+        <v>0.06965625</v>
       </c>
       <c r="J4" s="61" t="n">
         <f aca="false">J3*(1-Diretrizes!E$5)</f>
@@ -6602,7 +6612,7 @@
       </c>
       <c r="Q4" s="64" t="n">
         <f aca="false">Q3-Q2</f>
-        <v>0</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6611,7 +6621,7 @@
       </c>
       <c r="C5" s="65" t="n">
         <f aca="false">IF(G4&lt;&gt;0,C4+G4,)</f>
-        <v>0</v>
+        <v>5.77</v>
       </c>
       <c r="D5" s="66" t="n">
         <f aca="false">D4*(1+J4)</f>
@@ -6619,22 +6629,22 @@
       </c>
       <c r="E5" s="65" t="n">
         <f aca="false">C5*J5</f>
-        <v>0</v>
+        <v>0.2742553125</v>
       </c>
       <c r="F5" s="66" t="n">
         <f aca="false">D5*J5</f>
         <v>0.235533682617188</v>
       </c>
       <c r="G5" s="58" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="H5" s="67" t="n">
         <f aca="false">IF(G5=0,,G5/C5)</f>
-        <v>0</v>
+        <v>0.098786828422877</v>
       </c>
       <c r="I5" s="68" t="n">
         <f aca="false">IF(G5=0,,G5-F5)</f>
-        <v>0</v>
+        <v>0.334466317382812</v>
       </c>
       <c r="J5" s="61" t="n">
         <f aca="false">J4*(1-Diretrizes!E$5)</f>
@@ -6650,7 +6660,7 @@
       </c>
       <c r="N5" s="54" t="n">
         <f aca="false">N6+Q2</f>
-        <v>4.5</v>
+        <v>9.49</v>
       </c>
       <c r="O5" s="53"/>
       <c r="P5" s="51" t="s">
@@ -6658,7 +6668,7 @@
       </c>
       <c r="Q5" s="69" t="n">
         <f aca="false">Q3/(Q2)-1</f>
-        <v>0</v>
+        <v>1.10888888888889</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6667,7 +6677,7 @@
       </c>
       <c r="C6" s="65" t="n">
         <f aca="false">IF(G5&lt;&gt;0,C5+G5,)</f>
-        <v>0</v>
+        <v>6.34</v>
       </c>
       <c r="D6" s="66" t="n">
         <f aca="false">D5*(1+J5)</f>
@@ -6675,22 +6685,22 @@
       </c>
       <c r="E6" s="65" t="n">
         <f aca="false">C6*J6</f>
-        <v>0</v>
+        <v>0.293814421875</v>
       </c>
       <c r="F6" s="66" t="n">
         <f aca="false">D6*J6</f>
         <v>0.240560670644859</v>
       </c>
       <c r="G6" s="58" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H6" s="67" t="n">
         <f aca="false">IF(G6=0,,G6/C6)</f>
-        <v>0</v>
+        <v>0.0315457413249211</v>
       </c>
       <c r="I6" s="68" t="n">
         <f aca="false">IF(G6=0,,G6-F6)</f>
-        <v>0</v>
+        <v>-0.040560670644859</v>
       </c>
       <c r="J6" s="61" t="n">
         <f aca="false">J5*(1-Diretrizes!E$5)</f>
@@ -6706,7 +6716,7 @@
       </c>
       <c r="N6" s="64" t="n">
         <f aca="false">SUM(G3:G25)</f>
-        <v>0</v>
+        <v>4.99</v>
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="71"/>
@@ -6718,7 +6728,7 @@
       </c>
       <c r="C7" s="65" t="n">
         <f aca="false">IF(G6&lt;&gt;0,C6+G6,)</f>
-        <v>0</v>
+        <v>6.54</v>
       </c>
       <c r="D7" s="66" t="n">
         <f aca="false">D6*(1+J6)</f>
@@ -6726,22 +6736,22 @@
       </c>
       <c r="E7" s="65" t="n">
         <f aca="false">C7*J7</f>
-        <v>0</v>
+        <v>0.295505940234375</v>
       </c>
       <c r="F7" s="66" t="n">
         <f aca="false">D7*J7</f>
         <v>0.245416242129856</v>
       </c>
       <c r="G7" s="58" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="H7" s="67" t="n">
         <f aca="false">IF(G7=0,,G7/C7)</f>
-        <v>0</v>
+        <v>0.0259938837920489</v>
       </c>
       <c r="I7" s="68" t="n">
         <f aca="false">IF(G7=0,,G7-F7)</f>
-        <v>0</v>
+        <v>-0.075416242129856</v>
       </c>
       <c r="J7" s="61" t="n">
         <f aca="false">J6*(1-Diretrizes!E$5)</f>
@@ -6757,7 +6767,7 @@
       </c>
       <c r="N7" s="69" t="n">
         <f aca="false">N5/Q2-1</f>
-        <v>0</v>
+        <v>1.10888888888889</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="51" t="s">
@@ -6765,7 +6775,7 @@
       </c>
       <c r="Q7" s="72" t="n">
         <f aca="false">SUM(I3:I401)</f>
-        <v>-0.225</v>
+        <v>2.78661198929206</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6774,7 +6784,7 @@
       </c>
       <c r="C8" s="65" t="n">
         <f aca="false">IF(G7&lt;&gt;0,C7+G7,)</f>
-        <v>0</v>
+        <v>6.71</v>
       </c>
       <c r="D8" s="66" t="n">
         <f aca="false">D7*(1+J7)</f>
@@ -6782,22 +6792,22 @@
       </c>
       <c r="E8" s="65" t="n">
         <f aca="false">C8*J8</f>
-        <v>0</v>
+        <v>0.29560760512207</v>
       </c>
       <c r="F8" s="66" t="n">
         <f aca="false">D8*J8</f>
         <v>0.250092595777663</v>
       </c>
       <c r="G8" s="58" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H8" s="67" t="n">
         <f aca="false">IF(G8=0,,G8/C8)</f>
-        <v>0</v>
+        <v>0.0447093889716841</v>
       </c>
       <c r="I8" s="68" t="n">
         <f aca="false">IF(G8=0,,G8-F8)</f>
-        <v>0</v>
+        <v>0.049907404222337</v>
       </c>
       <c r="J8" s="61" t="n">
         <f aca="false">J7*(1-Diretrizes!E$5)</f>
@@ -6820,7 +6830,7 @@
       </c>
       <c r="C9" s="65" t="n">
         <f aca="false">IF(G8&lt;&gt;0,C8+G8,)</f>
-        <v>0</v>
+        <v>7.01</v>
       </c>
       <c r="D9" s="66" t="n">
         <f aca="false">D8*(1+J8)</f>
@@ -6828,22 +6838,22 @@
       </c>
       <c r="E9" s="65" t="n">
         <f aca="false">C9*J9</f>
-        <v>0</v>
+        <v>0.301103439509399</v>
       </c>
       <c r="F9" s="66" t="n">
         <f aca="false">D9*J9</f>
         <v>0.254582611950909</v>
       </c>
       <c r="G9" s="58" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="H9" s="67" t="n">
         <f aca="false">IF(G9=0,,G9/C9)</f>
-        <v>0</v>
+        <v>0.119828815977175</v>
       </c>
       <c r="I9" s="68" t="n">
         <f aca="false">IF(G9=0,,G9-F9)</f>
-        <v>0</v>
+        <v>0.585417388049091</v>
       </c>
       <c r="J9" s="61" t="n">
         <f aca="false">J8*(1-Diretrizes!E$5)</f>
@@ -6867,7 +6877,7 @@
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF(G3=0,,N5-'Ciclo 4'!Q2)</f>
-        <v>0</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6876,7 +6886,7 @@
       </c>
       <c r="C10" s="65" t="n">
         <f aca="false">IF(G9&lt;&gt;0,C9+G9,)</f>
-        <v>0</v>
+        <v>7.85</v>
       </c>
       <c r="D10" s="66" t="n">
         <f aca="false">D9*(1+J9)</f>
@@ -6884,22 +6894,22 @@
       </c>
       <c r="E10" s="65" t="n">
         <f aca="false">C10*J10</f>
-        <v>0</v>
+        <v>0.328754700448654</v>
       </c>
       <c r="F10" s="66" t="n">
         <f aca="false">D10*J10</f>
         <v>0.258879859433201</v>
       </c>
       <c r="G10" s="58" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H10" s="67" t="n">
         <f aca="false">IF(G10=0,,G10/C10)</f>
-        <v>0</v>
+        <v>0.0203821656050955</v>
       </c>
       <c r="I10" s="68" t="n">
         <f aca="false">IF(G10=0,,G10-F10)</f>
-        <v>0</v>
+        <v>-0.098879859433201</v>
       </c>
       <c r="J10" s="61" t="n">
         <f aca="false">J9*(1-Diretrizes!E$5)</f>
@@ -6919,7 +6929,7 @@
       </c>
       <c r="C11" s="65" t="n">
         <f aca="false">IF(G10&lt;&gt;0,C10+G10,)</f>
-        <v>0</v>
+        <v>8.01</v>
       </c>
       <c r="D11" s="66" t="n">
         <f aca="false">D10*(1+J10)</f>
@@ -6927,22 +6937,22 @@
       </c>
       <c r="E11" s="65" t="n">
         <f aca="false">C11*J11</f>
-        <v>0</v>
+        <v>0.327069047366736</v>
       </c>
       <c r="F11" s="66" t="n">
         <f aca="false">D11*J11</f>
         <v>0.262978598154268</v>
       </c>
       <c r="G11" s="58" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="H11" s="67" t="n">
         <f aca="false">IF(G11=0,,G11/C11)</f>
-        <v>0</v>
+        <v>0.184769038701623</v>
       </c>
       <c r="I11" s="68" t="n">
         <f aca="false">IF(G11=0,,G11-F11)</f>
-        <v>0</v>
+        <v>1.21702140184573</v>
       </c>
       <c r="J11" s="61" t="n">
         <f aca="false">J10*(1-Diretrizes!E$5)</f>
@@ -6963,7 +6973,7 @@
       </c>
       <c r="C12" s="65" t="n">
         <f aca="false">IF(G11&lt;&gt;0,C11+G11,)</f>
-        <v>0</v>
+        <v>9.49</v>
       </c>
       <c r="D12" s="66" t="n">
         <f aca="false">D11*(1+J11)</f>
@@ -6971,7 +6981,7 @@
       </c>
       <c r="E12" s="65" t="n">
         <f aca="false">C12*J12</f>
-        <v>0</v>
+        <v>0.3778137488168</v>
       </c>
       <c r="F12" s="66" t="n">
         <f aca="false">D12*J12</f>
@@ -8854,8 +8864,8 @@
   </sheetPr>
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11275,7 +11285,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
